--- a/STM32F407引脚.xlsx
+++ b/STM32F407引脚.xlsx
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="706" uniqueCount="201">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="708" uniqueCount="203">
   <si>
     <t>PA1</t>
   </si>
@@ -653,6 +653,13 @@
   </si>
   <si>
     <t>UART_RX</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>ADS1110_SCLK</t>
+  </si>
+  <si>
+    <t>ADS1110_SDA</t>
     <phoneticPr fontId="7" type="noConversion"/>
   </si>
 </sst>
@@ -787,7 +794,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="12">
+  <fills count="13">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -850,8 +857,13 @@
         <fgColor theme="8"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="7">
+  <borders count="8">
     <border>
       <left/>
       <right/>
@@ -927,8 +939,17 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="11">
+  <cellStyleXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -954,8 +975,11 @@
     <xf numFmtId="0" fontId="10" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="10" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="48">
+  <cellXfs count="50">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
@@ -1046,8 +1070,10 @@
     <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="1"/>
     <xf numFmtId="0" fontId="10" fillId="11" borderId="0" xfId="10" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="7" xfId="2" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="10" fillId="12" borderId="0" xfId="11" applyAlignment="1"/>
   </cellXfs>
-  <cellStyles count="11">
+  <cellStyles count="12">
     <cellStyle name="40% - 着色 2" xfId="4" builtinId="35"/>
     <cellStyle name="40% - 着色 3" xfId="5" builtinId="39"/>
     <cellStyle name="40% - 着色 5" xfId="7" builtinId="47"/>
@@ -1058,6 +1084,7 @@
     <cellStyle name="常规" xfId="0" builtinId="0"/>
     <cellStyle name="检查单元格" xfId="3" builtinId="23"/>
     <cellStyle name="适中" xfId="2" builtinId="28"/>
+    <cellStyle name="着色 2" xfId="11" builtinId="33"/>
     <cellStyle name="着色 5" xfId="10" builtinId="45"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -3401,13 +3428,14 @@
   <dimension ref="A1:V24"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="F16" sqref="F16"/>
+      <selection activeCell="E19" sqref="E18:E19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.125" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="4" style="12" customWidth="1"/>
-    <col min="2" max="3" width="11.375" style="12" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="15.375" style="12" customWidth="1"/>
+    <col min="3" max="3" width="16.5" style="12" customWidth="1"/>
     <col min="4" max="4" width="12.375" style="12" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="13.625" style="12" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="14.625" style="12" customWidth="1"/>
@@ -3794,10 +3822,10 @@
       <c r="A10" s="20" t="s">
         <v>105</v>
       </c>
-      <c r="B10" t="s">
+      <c r="B10" s="48" t="s">
         <v>129</v>
       </c>
-      <c r="C10" t="s">
+      <c r="C10" s="48" t="s">
         <v>32</v>
       </c>
       <c r="D10" s="22" t="s">
@@ -3845,8 +3873,12 @@
     </row>
     <row r="11" spans="1:18" ht="15.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A11" s="20"/>
-      <c r="B11"/>
-      <c r="C11"/>
+      <c r="B11" s="49" t="s">
+        <v>201</v>
+      </c>
+      <c r="C11" s="49" t="s">
+        <v>202</v>
+      </c>
       <c r="D11" s="31" t="s">
         <v>164</v>
       </c>

--- a/STM32F407引脚.xlsx
+++ b/STM32F407引脚.xlsx
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="708" uniqueCount="203">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="722" uniqueCount="217">
   <si>
     <t>PA1</t>
   </si>
@@ -660,6 +660,51 @@
   </si>
   <si>
     <t>ADS1110_SDA</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>FPGADATA0</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>FPGADATA1</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>FPGADATA2</t>
+  </si>
+  <si>
+    <t>FPGADATA3</t>
+  </si>
+  <si>
+    <t>FPGADATA4</t>
+  </si>
+  <si>
+    <t>FPGADATA5</t>
+  </si>
+  <si>
+    <t>FPGADATA6</t>
+  </si>
+  <si>
+    <t>FPGADATA7</t>
+  </si>
+  <si>
+    <t>FPGA_MOSI</t>
+  </si>
+  <si>
+    <t>FPGA_MISO</t>
+  </si>
+  <si>
+    <t>AD9834_SCLK</t>
+  </si>
+  <si>
+    <t>AD9834_SDATA</t>
+  </si>
+  <si>
+    <t>AD9834_RESET</t>
+  </si>
+  <si>
+    <t>AD9834_FSYNC</t>
     <phoneticPr fontId="7" type="noConversion"/>
   </si>
 </sst>
@@ -794,7 +839,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="13">
+  <fills count="14">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -860,6 +905,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="5"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.39997558519241921"/>
+        <bgColor indexed="65"/>
       </patternFill>
     </fill>
   </fills>
@@ -949,7 +1000,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="12">
+  <cellStyleXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -978,8 +1029,11 @@
     <xf numFmtId="0" fontId="10" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="10" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="50">
+  <cellXfs count="51">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
@@ -1072,12 +1126,14 @@
     <xf numFmtId="0" fontId="10" fillId="11" borderId="0" xfId="10" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="7" xfId="2" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="10" fillId="12" borderId="0" xfId="11" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="10" fillId="13" borderId="0" xfId="12" applyBorder="1" applyAlignment="1"/>
   </cellXfs>
-  <cellStyles count="12">
+  <cellStyles count="13">
     <cellStyle name="40% - 着色 2" xfId="4" builtinId="35"/>
     <cellStyle name="40% - 着色 3" xfId="5" builtinId="39"/>
     <cellStyle name="40% - 着色 5" xfId="7" builtinId="47"/>
     <cellStyle name="40% - 着色 6" xfId="9" builtinId="51"/>
+    <cellStyle name="60% - 着色 2" xfId="12" builtinId="36"/>
     <cellStyle name="60% - 着色 4" xfId="6" builtinId="44"/>
     <cellStyle name="60% - 着色 5" xfId="8" builtinId="48"/>
     <cellStyle name="差" xfId="1" builtinId="27"/>
@@ -3428,7 +3484,7 @@
   <dimension ref="A1:V24"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="E19" sqref="E18:E19"/>
+      <selection activeCell="L23" sqref="L23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.125" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -3655,34 +3711,34 @@
       <c r="A6" s="20" t="s">
         <v>103</v>
       </c>
-      <c r="B6" s="21" t="s">
+      <c r="B6" s="22" t="s">
         <v>127</v>
       </c>
-      <c r="C6" s="21" t="s">
+      <c r="C6" s="22" t="s">
         <v>30</v>
       </c>
-      <c r="D6" s="21" t="s">
+      <c r="D6" s="22" t="s">
         <v>35</v>
       </c>
-      <c r="E6" s="21" t="s">
+      <c r="E6" s="22" t="s">
         <v>36</v>
       </c>
-      <c r="F6" s="21" t="s">
+      <c r="F6" s="22" t="s">
         <v>37</v>
       </c>
-      <c r="G6" s="21" t="s">
+      <c r="G6" s="22" t="s">
         <v>38</v>
       </c>
-      <c r="H6" s="21" t="s">
+      <c r="H6" s="22" t="s">
         <v>39</v>
       </c>
-      <c r="I6" s="21" t="s">
+      <c r="I6" s="22" t="s">
         <v>40</v>
       </c>
-      <c r="J6" s="21" t="s">
+      <c r="J6" s="22" t="s">
         <v>41</v>
       </c>
-      <c r="K6" s="21" t="s">
+      <c r="K6" s="22" t="s">
         <v>42</v>
       </c>
       <c r="L6" s="21" t="s">
@@ -3705,16 +3761,36 @@
     </row>
     <row r="7" spans="1:18" ht="15.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A7" s="20"/>
-      <c r="B7" s="21"/>
-      <c r="C7" s="21"/>
-      <c r="D7" s="21"/>
-      <c r="E7" s="21"/>
-      <c r="F7" s="21"/>
-      <c r="G7" s="21"/>
-      <c r="H7" s="21"/>
-      <c r="I7" s="21"/>
-      <c r="J7" s="21"/>
-      <c r="K7" s="21"/>
+      <c r="B7" s="50" t="s">
+        <v>203</v>
+      </c>
+      <c r="C7" s="50" t="s">
+        <v>204</v>
+      </c>
+      <c r="D7" s="50" t="s">
+        <v>205</v>
+      </c>
+      <c r="E7" s="50" t="s">
+        <v>206</v>
+      </c>
+      <c r="F7" s="50" t="s">
+        <v>207</v>
+      </c>
+      <c r="G7" s="50" t="s">
+        <v>208</v>
+      </c>
+      <c r="H7" s="50" t="s">
+        <v>209</v>
+      </c>
+      <c r="I7" s="50" t="s">
+        <v>210</v>
+      </c>
+      <c r="J7" s="50" t="s">
+        <v>211</v>
+      </c>
+      <c r="K7" s="50" t="s">
+        <v>212</v>
+      </c>
       <c r="L7" s="21"/>
       <c r="M7" s="21"/>
       <c r="N7" s="21"/>
@@ -4060,8 +4136,27 @@
       <c r="P15" s="41"/>
       <c r="Q15" s="42"/>
     </row>
-    <row r="16" spans="1:18" ht="15" thickTop="1" x14ac:dyDescent="0.2"/>
-    <row r="22" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:18" ht="15" thickTop="1" x14ac:dyDescent="0.2">
+      <c r="B16" s="12" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="17" spans="2:22" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B17" s="12" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="18" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="B18" s="12" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="19" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="B19" s="12" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="22" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C22" s="13"/>
       <c r="D22" s="13"/>
       <c r="E22" s="13"/>
@@ -4082,7 +4177,7 @@
       <c r="U22" s="13"/>
       <c r="V22" s="13"/>
     </row>
-    <row r="23" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="23" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C23" s="13"/>
       <c r="J23" s="13"/>
       <c r="K23" s="13"/>
@@ -4097,7 +4192,7 @@
       <c r="U23" s="13"/>
       <c r="V23" s="13"/>
     </row>
-    <row r="24" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="24" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C24"/>
     </row>
   </sheetData>

--- a/STM32F407引脚.xlsx
+++ b/STM32F407引脚.xlsx
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="722" uniqueCount="217">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="727" uniqueCount="222">
   <si>
     <t>PA1</t>
   </si>
@@ -500,46 +500,46 @@
   </si>
   <si>
     <t>DAC</t>
-    <phoneticPr fontId="7" type="noConversion"/>
+    <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
     <t>Touch_CLK</t>
-    <phoneticPr fontId="7" type="noConversion"/>
+    <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
     <t>Touch_DOUT</t>
-    <phoneticPr fontId="7" type="noConversion"/>
+    <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
     <t>Touch_DIN</t>
-    <phoneticPr fontId="7" type="noConversion"/>
+    <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
     <t>Touch_CS</t>
-    <phoneticPr fontId="7" type="noConversion"/>
+    <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
     <t>Touch_IRQ</t>
-    <phoneticPr fontId="7" type="noConversion"/>
+    <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
     <t>Touch_IRQ</t>
-    <phoneticPr fontId="7" type="noConversion"/>
+    <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
     <t>LCD_REST</t>
   </si>
   <si>
     <t>Touch_DIN</t>
-    <phoneticPr fontId="7" type="noConversion"/>
+    <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
     <t>Touch_CLK</t>
-    <phoneticPr fontId="7" type="noConversion"/>
+    <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
     <t>FSMC_A0</t>
-    <phoneticPr fontId="7" type="noConversion"/>
+    <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
     <t>FSMC_A1</t>
@@ -570,14 +570,14 @@
   </si>
   <si>
     <t>FSMC_A10</t>
-    <phoneticPr fontId="7" type="noConversion"/>
+    <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
     <t>FSMC_A11</t>
   </si>
   <si>
     <t>FSMC_A16</t>
-    <phoneticPr fontId="7" type="noConversion"/>
+    <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
     <t>FSMC_A17</t>
@@ -587,7 +587,7 @@
   </si>
   <si>
     <t>FSMC_A12</t>
-    <phoneticPr fontId="7" type="noConversion"/>
+    <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
     <t>FSMC_A13</t>
@@ -621,54 +621,54 @@
   </si>
   <si>
     <t>备注</t>
-    <phoneticPr fontId="7" type="noConversion"/>
+    <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
     <t>SRAM</t>
-    <phoneticPr fontId="7" type="noConversion"/>
+    <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
     <t>LCD</t>
-    <phoneticPr fontId="7" type="noConversion"/>
+    <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
     <t>FSMC数据位</t>
-    <phoneticPr fontId="7" type="noConversion"/>
+    <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
     <t>SPI1（FPGA）</t>
-    <phoneticPr fontId="7" type="noConversion"/>
+    <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
     <t>触摸屏</t>
-    <phoneticPr fontId="7" type="noConversion"/>
+    <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
     <t>Touch_CS</t>
-    <phoneticPr fontId="7" type="noConversion"/>
+    <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
     <t>UART_TX</t>
-    <phoneticPr fontId="7" type="noConversion"/>
+    <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
     <t>UART_RX</t>
-    <phoneticPr fontId="7" type="noConversion"/>
+    <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
     <t>ADS1110_SCLK</t>
   </si>
   <si>
     <t>ADS1110_SDA</t>
-    <phoneticPr fontId="7" type="noConversion"/>
+    <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
     <t>FPGADATA0</t>
-    <phoneticPr fontId="7" type="noConversion"/>
+    <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
     <t>FPGADATA1</t>
-    <phoneticPr fontId="7" type="noConversion"/>
+    <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
     <t>FPGADATA2</t>
@@ -689,12 +689,6 @@
     <t>FPGADATA7</t>
   </si>
   <si>
-    <t>FPGA_MOSI</t>
-  </si>
-  <si>
-    <t>FPGA_MISO</t>
-  </si>
-  <si>
     <t>AD9834_SCLK</t>
   </si>
   <si>
@@ -705,19 +699,51 @@
   </si>
   <si>
     <t>AD9834_FSYNC</t>
-    <phoneticPr fontId="7" type="noConversion"/>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>FPGADATA8</t>
+  </si>
+  <si>
+    <t>FPGADATA9</t>
+  </si>
+  <si>
+    <t>FPGADATA10</t>
+  </si>
+  <si>
+    <t>FPGADATA11</t>
+  </si>
+  <si>
+    <t>FPGA_COM2</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>FPGA_COM1</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>FPGA_SCK</t>
+    <phoneticPr fontId="8" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="17" x14ac:knownFonts="1">
+  <fonts count="18">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="等线"/>
       <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <family val="2"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -839,7 +865,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="14">
+  <fills count="15">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -910,6 +936,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="5" tint="0.39997558519241921"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.79998168889431442"/>
         <bgColor indexed="65"/>
       </patternFill>
     </fill>
@@ -1000,135 +1032,140 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="13">
+  <cellStyleXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="51">
+  <cellXfs count="52">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="1" xfId="3" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="1" xfId="3" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="2" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="2" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="3" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="3" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="3" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="9" borderId="2" xfId="8" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="16" fillId="7" borderId="2" xfId="6" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="17" fillId="9" borderId="2" xfId="8" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="17" fillId="7" borderId="2" xfId="6" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="2" xfId="5" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="2" xfId="5" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="2" xfId="4" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="1" fillId="10" borderId="3" xfId="9" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="1" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="2" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="12" fillId="2" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="14" fillId="3" borderId="0" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" xfId="4" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="13" fillId="3" borderId="0" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="2" xfId="4" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="10" borderId="3" xfId="9" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="1" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="2" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="13" fillId="2" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="15" fillId="3" borderId="0" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" xfId="4" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="14" fillId="3" borderId="0" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="2" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="2" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="3" borderId="4" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="3" borderId="4" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" xfId="5" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" xfId="5" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="10" borderId="0" xfId="9" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="15" fillId="7" borderId="0" xfId="6" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="8" borderId="0" xfId="7" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="4" xfId="5" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
+    <xf numFmtId="0" fontId="2" fillId="10" borderId="0" xfId="9" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="16" fillId="7" borderId="0" xfId="6" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="7" borderId="0" xfId="6" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="4" xfId="2" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="1" fillId="8" borderId="4" xfId="7" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="1" xfId="3" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="1" fillId="8" borderId="5" xfId="7" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="5" xfId="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="1"/>
-    <xf numFmtId="0" fontId="10" fillId="11" borderId="0" xfId="10" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="7" xfId="2" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="10" fillId="12" borderId="0" xfId="11" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="10" fillId="13" borderId="0" xfId="12" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" xfId="7" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="4" xfId="5" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="7" borderId="0" xfId="6" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="7" borderId="0" xfId="6" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="4" xfId="2" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="4" xfId="7" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="1" xfId="3" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="5" xfId="7" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="5" xfId="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="4" xfId="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="1"/>
+    <xf numFmtId="0" fontId="11" fillId="11" borderId="0" xfId="10" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="7" xfId="2" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="11" fillId="12" borderId="0" xfId="11" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="11" fillId="13" borderId="0" xfId="12" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="14" borderId="0" xfId="13" applyBorder="1" applyAlignment="1"/>
   </cellXfs>
-  <cellStyles count="13">
+  <cellStyles count="14">
+    <cellStyle name="20% - 着色 1" xfId="13" builtinId="30"/>
     <cellStyle name="40% - 着色 2" xfId="4" builtinId="35"/>
     <cellStyle name="40% - 着色 3" xfId="5" builtinId="39"/>
     <cellStyle name="40% - 着色 5" xfId="7" builtinId="47"/>
@@ -1459,12 +1496,12 @@
       <selection activeCell="D9" sqref="D9:E9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="14.25"/>
   <cols>
     <col min="2" max="2" width="9.125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" ht="15.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:17" ht="15.75" thickTop="1" thickBot="1">
       <c r="A1" s="2"/>
       <c r="B1" s="2" t="s">
         <v>124</v>
@@ -1515,7 +1552,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="2" spans="1:17" ht="15.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:17" ht="15.75" thickTop="1" thickBot="1">
       <c r="A2" s="2" t="s">
         <v>8</v>
       </c>
@@ -1564,7 +1601,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="3" spans="1:17" ht="15.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:17" ht="15.75" thickTop="1" thickBot="1">
       <c r="A3" s="2"/>
       <c r="B3" s="3"/>
       <c r="C3" s="3"/>
@@ -1585,7 +1622,7 @@
       <c r="P3" s="3"/>
       <c r="Q3" s="3"/>
     </row>
-    <row r="4" spans="1:17" ht="15.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:17" ht="15.75" thickTop="1" thickBot="1">
       <c r="A4" s="2" t="s">
         <v>9</v>
       </c>
@@ -1638,7 +1675,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="5" spans="1:17" ht="15.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:17" ht="15.75" thickTop="1" thickBot="1">
       <c r="A5" s="2"/>
       <c r="B5" s="3"/>
       <c r="C5" s="3"/>
@@ -1657,7 +1694,7 @@
       <c r="P5" s="3"/>
       <c r="Q5" s="3"/>
     </row>
-    <row r="6" spans="1:17" ht="15.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:17" ht="15.75" thickTop="1" thickBot="1">
       <c r="A6" s="2" t="s">
         <v>103</v>
       </c>
@@ -1706,7 +1743,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="7" spans="1:17" ht="15.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:17" ht="15.75" thickTop="1" thickBot="1">
       <c r="A7" s="2"/>
       <c r="B7" s="3"/>
       <c r="C7" s="3"/>
@@ -1725,7 +1762,7 @@
       <c r="P7" s="3"/>
       <c r="Q7" s="3"/>
     </row>
-    <row r="8" spans="1:17" ht="15.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:17" ht="15.75" thickTop="1" thickBot="1">
       <c r="A8" s="2" t="s">
         <v>104</v>
       </c>
@@ -1778,7 +1815,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="9" spans="1:17" ht="30" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:17" ht="30" thickTop="1" thickBot="1">
       <c r="A9" s="2"/>
       <c r="B9" s="9" t="s">
         <v>132</v>
@@ -1829,7 +1866,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="10" spans="1:17" ht="15.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:17" ht="15.75" thickTop="1" thickBot="1">
       <c r="A10" s="2" t="s">
         <v>105</v>
       </c>
@@ -1882,7 +1919,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="11" spans="1:17" ht="30" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:17" ht="30" thickTop="1" thickBot="1">
       <c r="A11" s="2"/>
       <c r="B11" s="3"/>
       <c r="C11" s="3"/>
@@ -1921,7 +1958,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="12" spans="1:17" ht="15.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:17" ht="15.75" thickTop="1" thickBot="1">
       <c r="A12" s="2" t="s">
         <v>106</v>
       </c>
@@ -1974,7 +2011,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="13" spans="1:17" ht="15.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:17" ht="15.75" thickTop="1" thickBot="1">
       <c r="A13" s="2"/>
       <c r="B13" s="3"/>
       <c r="C13" s="3"/>
@@ -1993,7 +2030,7 @@
       <c r="P13" s="3"/>
       <c r="Q13" s="3"/>
     </row>
-    <row r="14" spans="1:17" ht="15.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:17" ht="15.75" thickTop="1" thickBot="1">
       <c r="A14" s="2" t="s">
         <v>107</v>
       </c>
@@ -2046,9 +2083,9 @@
         <v>102</v>
       </c>
     </row>
-    <row r="15" spans="1:17" ht="15" thickTop="1" x14ac:dyDescent="0.2"/>
+    <row r="15" spans="1:17" ht="15" thickTop="1"/>
   </sheetData>
-  <phoneticPr fontId="7" type="noConversion"/>
+  <phoneticPr fontId="8" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
@@ -2062,7 +2099,7 @@
       <selection activeCell="Q18" sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.125" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="9.125" defaultRowHeight="14.25"/>
   <cols>
     <col min="1" max="1" width="4" style="12" customWidth="1"/>
     <col min="2" max="3" width="11.375" style="12" bestFit="1" customWidth="1"/>
@@ -2079,7 +2116,7 @@
     <col min="19" max="16384" width="9.125" style="12"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:18" ht="15.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:18" ht="15.75" thickTop="1" thickBot="1">
       <c r="A1" s="20"/>
       <c r="B1" s="20" t="s">
         <v>124</v>
@@ -2133,7 +2170,7 @@
         <v>192</v>
       </c>
     </row>
-    <row r="2" spans="1:18" ht="15.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:18" ht="15.75" thickTop="1" thickBot="1">
       <c r="A2" s="20" t="s">
         <v>8</v>
       </c>
@@ -2185,7 +2222,7 @@
         <v>193</v>
       </c>
     </row>
-    <row r="3" spans="1:18" ht="15.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:18" ht="15.75" thickTop="1" thickBot="1">
       <c r="A3" s="20"/>
       <c r="B3" s="21"/>
       <c r="C3" s="21"/>
@@ -2213,7 +2250,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="4" spans="1:18" ht="15.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:18" ht="15.75" thickTop="1" thickBot="1">
       <c r="A4" s="20" t="s">
         <v>9</v>
       </c>
@@ -2269,7 +2306,7 @@
         <v>195</v>
       </c>
     </row>
-    <row r="5" spans="1:18" ht="15.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:18" ht="15.75" thickTop="1" thickBot="1">
       <c r="A5" s="20"/>
       <c r="B5" s="21"/>
       <c r="C5" s="21"/>
@@ -2293,7 +2330,7 @@
         <v>196</v>
       </c>
     </row>
-    <row r="6" spans="1:18" ht="15.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:18" ht="15.75" thickTop="1" thickBot="1">
       <c r="A6" s="20" t="s">
         <v>103</v>
       </c>
@@ -2345,7 +2382,7 @@
         <v>197</v>
       </c>
     </row>
-    <row r="7" spans="1:18" ht="15.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:18" ht="15.75" thickTop="1" thickBot="1">
       <c r="A7" s="20"/>
       <c r="B7" s="21"/>
       <c r="C7" s="21"/>
@@ -2364,7 +2401,7 @@
       <c r="P7" s="23"/>
       <c r="Q7" s="24"/>
     </row>
-    <row r="8" spans="1:18" ht="15.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:18" ht="15.75" thickTop="1" thickBot="1">
       <c r="A8" s="20" t="s">
         <v>104</v>
       </c>
@@ -2417,7 +2454,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="9" spans="1:18" ht="15.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:18" ht="15.75" thickTop="1" thickBot="1">
       <c r="A9" s="20"/>
       <c r="B9" s="30" t="s">
         <v>132</v>
@@ -2468,7 +2505,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="10" spans="1:18" ht="15.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:18" ht="15.75" thickTop="1" thickBot="1">
       <c r="A10" s="20" t="s">
         <v>105</v>
       </c>
@@ -2521,7 +2558,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="11" spans="1:18" ht="15.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:18" ht="15.75" thickTop="1" thickBot="1">
       <c r="A11" s="20"/>
       <c r="B11" s="33" t="s">
         <v>187</v>
@@ -2572,7 +2609,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="12" spans="1:18" ht="15.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:18" ht="15.75" thickTop="1" thickBot="1">
       <c r="A12" s="20" t="s">
         <v>106</v>
       </c>
@@ -2625,7 +2662,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="13" spans="1:18" ht="15.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:18" ht="15.75" thickTop="1" thickBot="1">
       <c r="A13" s="20"/>
       <c r="B13" s="33" t="s">
         <v>166</v>
@@ -2664,7 +2701,7 @@
         <v>175</v>
       </c>
     </row>
-    <row r="14" spans="1:18" ht="15.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:18" ht="15.75" thickTop="1" thickBot="1">
       <c r="A14" s="20" t="s">
         <v>107</v>
       </c>
@@ -2717,7 +2754,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="15" spans="1:18" ht="15.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:18" ht="15.75" thickTop="1" thickBot="1">
       <c r="A15" s="39"/>
       <c r="B15" s="40" t="s">
         <v>176</v>
@@ -2750,8 +2787,8 @@
       <c r="P15" s="41"/>
       <c r="Q15" s="42"/>
     </row>
-    <row r="16" spans="1:18" ht="15" thickTop="1" x14ac:dyDescent="0.2"/>
-    <row r="22" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:18" ht="15" thickTop="1"/>
+    <row r="22" spans="3:22">
       <c r="C22" s="13"/>
       <c r="D22" s="13"/>
       <c r="E22" s="13"/>
@@ -2772,7 +2809,7 @@
       <c r="U22" s="13"/>
       <c r="V22" s="13"/>
     </row>
-    <row r="23" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="23" spans="3:22">
       <c r="C23" s="13"/>
       <c r="J23" s="13"/>
       <c r="K23" s="13"/>
@@ -2787,11 +2824,11 @@
       <c r="U23" s="13"/>
       <c r="V23" s="13"/>
     </row>
-    <row r="24" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:22">
       <c r="C24"/>
     </row>
   </sheetData>
-  <phoneticPr fontId="7" type="noConversion"/>
+  <phoneticPr fontId="8" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
@@ -2805,7 +2842,7 @@
       <selection activeCell="E34" sqref="E34"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.125" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="9.125" defaultRowHeight="14.25"/>
   <cols>
     <col min="1" max="1" width="4" style="12" customWidth="1"/>
     <col min="2" max="3" width="11.375" style="12" bestFit="1" customWidth="1"/>
@@ -2822,7 +2859,7 @@
     <col min="19" max="16384" width="9.125" style="12"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:18" ht="15.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:18" ht="15.75" thickTop="1" thickBot="1">
       <c r="A1" s="20"/>
       <c r="B1" s="20" t="s">
         <v>124</v>
@@ -2876,7 +2913,7 @@
         <v>192</v>
       </c>
     </row>
-    <row r="2" spans="1:18" ht="15.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:18" ht="15.75" thickTop="1" thickBot="1">
       <c r="A2" s="20" t="s">
         <v>8</v>
       </c>
@@ -2928,7 +2965,7 @@
         <v>193</v>
       </c>
     </row>
-    <row r="3" spans="1:18" ht="15.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:18" ht="15.75" thickTop="1" thickBot="1">
       <c r="A3" s="20"/>
       <c r="B3" s="21"/>
       <c r="C3" s="21"/>
@@ -2956,7 +2993,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="4" spans="1:18" ht="15.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:18" ht="15.75" thickTop="1" thickBot="1">
       <c r="A4" s="20" t="s">
         <v>9</v>
       </c>
@@ -3004,7 +3041,7 @@
         <v>195</v>
       </c>
     </row>
-    <row r="5" spans="1:18" ht="15.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:18" ht="15.75" thickTop="1" thickBot="1">
       <c r="A5" s="20"/>
       <c r="B5" s="43"/>
       <c r="C5" s="43"/>
@@ -3028,7 +3065,7 @@
         <v>196</v>
       </c>
     </row>
-    <row r="6" spans="1:18" ht="15.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:18" ht="15.75" thickTop="1" thickBot="1">
       <c r="A6" s="20" t="s">
         <v>103</v>
       </c>
@@ -3080,7 +3117,7 @@
         <v>197</v>
       </c>
     </row>
-    <row r="7" spans="1:18" ht="15.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:18" ht="15.75" thickTop="1" thickBot="1">
       <c r="A7" s="20"/>
       <c r="B7" s="21"/>
       <c r="C7" s="21"/>
@@ -3099,7 +3136,7 @@
       <c r="P7" s="23"/>
       <c r="Q7" s="24"/>
     </row>
-    <row r="8" spans="1:18" ht="15.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:18" ht="15.75" thickTop="1" thickBot="1">
       <c r="A8" s="20" t="s">
         <v>104</v>
       </c>
@@ -3152,7 +3189,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="9" spans="1:18" ht="15.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:18" ht="15.75" thickTop="1" thickBot="1">
       <c r="A9" s="20"/>
       <c r="B9" s="30" t="s">
         <v>132</v>
@@ -3195,7 +3232,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="10" spans="1:18" ht="15.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:18" ht="15.75" thickTop="1" thickBot="1">
       <c r="A10" s="20" t="s">
         <v>105</v>
       </c>
@@ -3248,7 +3285,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="11" spans="1:18" ht="15.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:18" ht="15.75" thickTop="1" thickBot="1">
       <c r="A11" s="20"/>
       <c r="B11"/>
       <c r="C11"/>
@@ -3295,7 +3332,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="12" spans="1:18" ht="15.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:18" ht="15.75" thickTop="1" thickBot="1">
       <c r="A12" s="20" t="s">
         <v>106</v>
       </c>
@@ -3344,7 +3381,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="13" spans="1:18" ht="15.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:18" ht="15.75" thickTop="1" thickBot="1">
       <c r="A13" s="20"/>
       <c r="B13"/>
       <c r="C13"/>
@@ -3363,7 +3400,7 @@
       <c r="P13"/>
       <c r="Q13"/>
     </row>
-    <row r="14" spans="1:18" ht="15.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:18" ht="15.75" thickTop="1" thickBot="1">
       <c r="A14" s="20" t="s">
         <v>107</v>
       </c>
@@ -3414,7 +3451,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="15" spans="1:18" ht="15.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:18" ht="15.75" thickTop="1" thickBot="1">
       <c r="A15" s="39"/>
       <c r="B15"/>
       <c r="C15"/>
@@ -3433,8 +3470,8 @@
       <c r="P15" s="41"/>
       <c r="Q15" s="42"/>
     </row>
-    <row r="16" spans="1:18" ht="15" thickTop="1" x14ac:dyDescent="0.2"/>
-    <row r="22" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:18" ht="15" thickTop="1"/>
+    <row r="22" spans="3:22">
       <c r="C22" s="13"/>
       <c r="D22" s="13"/>
       <c r="E22" s="13"/>
@@ -3455,7 +3492,7 @@
       <c r="U22" s="13"/>
       <c r="V22" s="13"/>
     </row>
-    <row r="23" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="23" spans="3:22">
       <c r="C23" s="13"/>
       <c r="J23" s="13"/>
       <c r="K23" s="13"/>
@@ -3470,11 +3507,11 @@
       <c r="U23" s="13"/>
       <c r="V23" s="13"/>
     </row>
-    <row r="24" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:22">
       <c r="C24"/>
     </row>
   </sheetData>
-  <phoneticPr fontId="7" type="noConversion"/>
+  <phoneticPr fontId="8" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -3483,29 +3520,30 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:V24"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="L23" sqref="L23"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="H13" sqref="H13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.125" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="9.125" defaultRowHeight="14.25"/>
   <cols>
     <col min="1" max="1" width="4" style="12" customWidth="1"/>
-    <col min="2" max="2" width="15.375" style="12" customWidth="1"/>
-    <col min="3" max="3" width="16.5" style="12" customWidth="1"/>
+    <col min="2" max="2" width="15" style="12" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="13.625" style="12" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="12.375" style="12" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="13.625" style="12" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.625" style="12" customWidth="1"/>
+    <col min="6" max="6" width="14.375" style="12" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="15.375" style="12" customWidth="1"/>
-    <col min="8" max="8" width="13" style="12" customWidth="1"/>
-    <col min="9" max="9" width="13.875" style="12" bestFit="1" customWidth="1"/>
-    <col min="10" max="12" width="10.25" style="12" bestFit="1" customWidth="1"/>
-    <col min="13" max="14" width="10.125" style="12" bestFit="1" customWidth="1"/>
-    <col min="15" max="17" width="10.25" style="12" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="11.75" style="12" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="13.75" style="12" bestFit="1" customWidth="1"/>
+    <col min="10" max="11" width="11.75" style="12" bestFit="1" customWidth="1"/>
+    <col min="12" max="13" width="12.875" style="12" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="9.125" style="12" bestFit="1" customWidth="1"/>
+    <col min="15" max="17" width="10.125" style="12" bestFit="1" customWidth="1"/>
     <col min="18" max="18" width="13.5" style="12" bestFit="1" customWidth="1"/>
     <col min="19" max="16384" width="9.125" style="12"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:18" ht="15.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:18" ht="15.75" thickTop="1" thickBot="1">
       <c r="A1" s="20"/>
       <c r="B1" s="20" t="s">
         <v>124</v>
@@ -3559,7 +3597,7 @@
         <v>192</v>
       </c>
     </row>
-    <row r="2" spans="1:18" ht="15.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:18" ht="15.75" thickTop="1" thickBot="1">
       <c r="A2" s="20" t="s">
         <v>8</v>
       </c>
@@ -3611,7 +3649,7 @@
         <v>193</v>
       </c>
     </row>
-    <row r="3" spans="1:18" ht="15.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:18" ht="15.75" thickTop="1" thickBot="1">
       <c r="A3" s="20"/>
       <c r="B3" s="21"/>
       <c r="C3" s="21"/>
@@ -3633,7 +3671,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="4" spans="1:18" ht="15.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:18" ht="15.75" thickTop="1" thickBot="1">
       <c r="A4" s="20" t="s">
         <v>9</v>
       </c>
@@ -3652,13 +3690,13 @@
       <c r="H4" s="21" t="s">
         <v>20</v>
       </c>
-      <c r="I4" s="21" t="s">
+      <c r="I4" s="22" t="s">
         <v>21</v>
       </c>
-      <c r="J4" s="21" t="s">
+      <c r="J4" s="22" t="s">
         <v>22</v>
       </c>
-      <c r="K4" s="21" t="s">
+      <c r="K4" s="22" t="s">
         <v>23</v>
       </c>
       <c r="L4" s="22" t="s">
@@ -3681,7 +3719,7 @@
         <v>195</v>
       </c>
     </row>
-    <row r="5" spans="1:18" ht="15.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:18" ht="15.75" thickTop="1" thickBot="1">
       <c r="A5" s="20"/>
       <c r="B5" s="43"/>
       <c r="C5" s="43"/>
@@ -3690,9 +3728,15 @@
       <c r="F5" s="21"/>
       <c r="G5" s="21"/>
       <c r="H5" s="21"/>
-      <c r="I5" s="21"/>
-      <c r="J5" s="21"/>
-      <c r="K5" s="21"/>
+      <c r="I5" s="51" t="s">
+        <v>219</v>
+      </c>
+      <c r="J5" s="51" t="s">
+        <v>220</v>
+      </c>
+      <c r="K5" s="51" t="s">
+        <v>221</v>
+      </c>
       <c r="L5" s="47" t="s">
         <v>199</v>
       </c>
@@ -3707,7 +3751,7 @@
         <v>196</v>
       </c>
     </row>
-    <row r="6" spans="1:18" ht="15.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:18" ht="15.75" thickTop="1" thickBot="1">
       <c r="A6" s="20" t="s">
         <v>103</v>
       </c>
@@ -3741,10 +3785,10 @@
       <c r="K6" s="22" t="s">
         <v>42</v>
       </c>
-      <c r="L6" s="21" t="s">
+      <c r="L6" s="22" t="s">
         <v>43</v>
       </c>
-      <c r="M6" s="21" t="s">
+      <c r="M6" s="22" t="s">
         <v>44</v>
       </c>
       <c r="N6" s="21" t="s">
@@ -3759,7 +3803,7 @@
         <v>197</v>
       </c>
     </row>
-    <row r="7" spans="1:18" ht="15.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:18" ht="15.75" thickTop="1" thickBot="1">
       <c r="A7" s="20"/>
       <c r="B7" s="50" t="s">
         <v>203</v>
@@ -3786,19 +3830,23 @@
         <v>210</v>
       </c>
       <c r="J7" s="50" t="s">
-        <v>211</v>
+        <v>215</v>
       </c>
       <c r="K7" s="50" t="s">
-        <v>212</v>
-      </c>
-      <c r="L7" s="21"/>
-      <c r="M7" s="21"/>
+        <v>216</v>
+      </c>
+      <c r="L7" s="50" t="s">
+        <v>217</v>
+      </c>
+      <c r="M7" s="50" t="s">
+        <v>218</v>
+      </c>
       <c r="N7" s="21"/>
       <c r="O7" s="23"/>
       <c r="P7" s="23"/>
       <c r="Q7" s="24"/>
     </row>
-    <row r="8" spans="1:18" ht="15.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:18" ht="15.75" thickTop="1" thickBot="1">
       <c r="A8" s="20" t="s">
         <v>104</v>
       </c>
@@ -3851,7 +3899,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="9" spans="1:18" ht="15.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:18" ht="15.75" thickTop="1" thickBot="1">
       <c r="A9" s="20"/>
       <c r="B9" s="30" t="s">
         <v>132</v>
@@ -3894,7 +3942,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="10" spans="1:18" ht="15.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:18" ht="15.75" thickTop="1" thickBot="1">
       <c r="A10" s="20" t="s">
         <v>105</v>
       </c>
@@ -3947,7 +3995,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="11" spans="1:18" ht="15.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:18" ht="15.75" thickTop="1" thickBot="1">
       <c r="A11" s="20"/>
       <c r="B11" s="49" t="s">
         <v>201</v>
@@ -3998,7 +4046,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="12" spans="1:18" ht="15.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:18" ht="15.75" thickTop="1" thickBot="1">
       <c r="A12" s="20" t="s">
         <v>106</v>
       </c>
@@ -4047,7 +4095,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="13" spans="1:18" ht="15.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:18" ht="15.75" thickTop="1" thickBot="1">
       <c r="A13" s="20"/>
       <c r="B13"/>
       <c r="C13"/>
@@ -4066,7 +4114,7 @@
       <c r="P13"/>
       <c r="Q13"/>
     </row>
-    <row r="14" spans="1:18" ht="15.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:18" ht="15.75" thickTop="1" thickBot="1">
       <c r="A14" s="20" t="s">
         <v>107</v>
       </c>
@@ -4117,7 +4165,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="15" spans="1:18" ht="15.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:18" ht="15.75" thickTop="1" thickBot="1">
       <c r="A15" s="39"/>
       <c r="B15"/>
       <c r="C15"/>
@@ -4136,27 +4184,27 @@
       <c r="P15" s="41"/>
       <c r="Q15" s="42"/>
     </row>
-    <row r="16" spans="1:18" ht="15" thickTop="1" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:18" ht="15" thickTop="1">
       <c r="B16" s="12" t="s">
-        <v>216</v>
-      </c>
-    </row>
-    <row r="17" spans="2:22" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="17" spans="2:22" ht="13.5" customHeight="1">
       <c r="B17" s="12" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="18" spans="2:22">
+      <c r="B18" s="12" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="19" spans="2:22">
+      <c r="B19" s="12" t="s">
         <v>213</v>
       </c>
     </row>
-    <row r="18" spans="2:22" x14ac:dyDescent="0.2">
-      <c r="B18" s="12" t="s">
-        <v>214</v>
-      </c>
-    </row>
-    <row r="19" spans="2:22" x14ac:dyDescent="0.2">
-      <c r="B19" s="12" t="s">
-        <v>215</v>
-      </c>
-    </row>
-    <row r="22" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="22" spans="2:22">
       <c r="C22" s="13"/>
       <c r="D22" s="13"/>
       <c r="E22" s="13"/>
@@ -4177,7 +4225,7 @@
       <c r="U22" s="13"/>
       <c r="V22" s="13"/>
     </row>
-    <row r="23" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="23" spans="2:22">
       <c r="C23" s="13"/>
       <c r="J23" s="13"/>
       <c r="K23" s="13"/>
@@ -4192,11 +4240,11 @@
       <c r="U23" s="13"/>
       <c r="V23" s="13"/>
     </row>
-    <row r="24" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="24" spans="2:22">
       <c r="C24"/>
     </row>
   </sheetData>
-  <phoneticPr fontId="7" type="noConversion"/>
+  <phoneticPr fontId="8" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
 </worksheet>
@@ -4210,9 +4258,9 @@
       <selection sqref="A1:B20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="14.25"/>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:2">
       <c r="A1" s="1" t="s">
         <v>128</v>
       </c>
@@ -4220,7 +4268,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:2">
       <c r="A2" s="1" t="s">
         <v>31</v>
       </c>
@@ -4228,7 +4276,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="3" spans="1:2" ht="28.5" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:2" ht="28.5">
       <c r="A3" s="1" t="s">
         <v>49</v>
       </c>
@@ -4236,7 +4284,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="4" spans="1:2" ht="28.5" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:2" ht="28.5">
       <c r="A4" s="1" t="s">
         <v>50</v>
       </c>
@@ -4244,7 +4292,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="5" spans="1:2" ht="28.5" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:2" ht="28.5">
       <c r="A5" s="1" t="s">
         <v>52</v>
       </c>
@@ -4252,7 +4300,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="6" spans="1:2" ht="28.5" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:2" ht="28.5">
       <c r="A6" s="1" t="s">
         <v>53</v>
       </c>
@@ -4260,7 +4308,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="7" spans="1:2" ht="28.5" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:2" ht="28.5">
       <c r="A7" s="1" t="s">
         <v>54</v>
       </c>
@@ -4268,7 +4316,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="8" spans="1:2" ht="28.5" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:2" ht="28.5">
       <c r="A8" s="1" t="s">
         <v>55</v>
       </c>
@@ -4276,7 +4324,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:2">
       <c r="A9" s="1" t="s">
         <v>59</v>
       </c>
@@ -4284,7 +4332,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:2">
       <c r="A10" s="1" t="s">
         <v>60</v>
       </c>
@@ -4292,7 +4340,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="11" spans="1:2" ht="28.5" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:2" ht="28.5">
       <c r="A11" s="1" t="s">
         <v>62</v>
       </c>
@@ -4300,7 +4348,7 @@
         <v>142</v>
       </c>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:2">
       <c r="A12" s="1" t="s">
         <v>66</v>
       </c>
@@ -4308,7 +4356,7 @@
         <v>143</v>
       </c>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:2">
       <c r="A13" s="1" t="s">
         <v>67</v>
       </c>
@@ -4316,7 +4364,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:2">
       <c r="A14" s="1" t="s">
         <v>68</v>
       </c>
@@ -4324,7 +4372,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:2">
       <c r="A15" s="1" t="s">
         <v>69</v>
       </c>
@@ -4332,7 +4380,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:2">
       <c r="A16" s="1" t="s">
         <v>70</v>
       </c>
@@ -4340,7 +4388,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:2">
       <c r="A17" s="1" t="s">
         <v>71</v>
       </c>
@@ -4348,7 +4396,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="18" spans="1:2" ht="28.5" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:2" ht="28.5">
       <c r="A18" s="1" t="s">
         <v>72</v>
       </c>
@@ -4356,7 +4404,7 @@
         <v>149</v>
       </c>
     </row>
-    <row r="19" spans="1:2" ht="28.5" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:2" ht="28.5">
       <c r="A19" s="1" t="s">
         <v>73</v>
       </c>
@@ -4364,7 +4412,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="20" spans="1:2" ht="28.5" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:2" ht="28.5">
       <c r="A20" s="1" t="s">
         <v>74</v>
       </c>
@@ -4373,7 +4421,7 @@
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="7" type="noConversion"/>
+  <phoneticPr fontId="8" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>